--- a/Testcases_Compose email Functionality.xlsx
+++ b/Testcases_Compose email Functionality.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAICHANDRA\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE49D347-A6EB-4633-B2D9-143196E98F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB136B4-0E70-49B9-B34C-2B2A6447C77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E8386181-2517-4712-82DF-F428E26FEBFD}"/>
   </bookViews>
@@ -231,69 +231,6 @@
     <t>TC25</t>
   </si>
   <si>
-    <t>Verify that the ‘New Message’ popup is displaying on clicking on the Compose email button.</t>
-  </si>
-  <si>
-    <t>Verify that the email ids can be entered in the fields To, CC, and BCC</t>
-  </si>
-  <si>
-    <t>Verify that the auto suggestion are working properly based on the exisitng contacts while typing email ids in the To, CC, and BCC fields.</t>
-  </si>
-  <si>
-    <t>Verify that multiple comma seperated email ids can be entered in the To, CC, and BCC sections</t>
-  </si>
-  <si>
-    <t>Verify that the text can be entered in the Subject text box.</t>
-  </si>
-  <si>
-    <t>Verify that the text can be entered in the email body area.</t>
-  </si>
-  <si>
-    <t>Verify that the editor options such as font-family, font-size, bold, italic, underline, text color, etc., are working and allowing user to format the email body text.</t>
-  </si>
-  <si>
-    <t>Verify that the user can add files in the attachment section.</t>
-  </si>
-  <si>
-    <t>Verify that the user can add images in the email body area.</t>
-  </si>
-  <si>
-    <t>Verify that the email is delivered to all the intended users in the To, CC, BCC.</t>
-  </si>
-  <si>
-    <t>Verify that the sent emails are available in the Sent Mail section.</t>
-  </si>
-  <si>
-    <t>Verify that the email is delivered to all the intended users who are using non-gmail ids such as Hotmail, Outlook, Yahoomail etc.,</t>
-  </si>
-  <si>
-    <t>Verify that the emails composed and not sent are stored in the Draft section.</t>
-  </si>
-  <si>
-    <t>Verify that the maximum number of emails can be entered in the To, CC, and BCC fields.</t>
-  </si>
-  <si>
-    <t>Verify that the maximum number of characters allowed in the subject text box.</t>
-  </si>
-  <si>
-    <t>Verify that the maximum number of characters allowed in the email body text filed.</t>
-  </si>
-  <si>
-    <t>Verify that the maximum number of attachments and size of the attachment allowed in an email.</t>
-  </si>
-  <si>
-    <t>Verify whether a warning popup message is displayed when we try to send an email without Subject line.</t>
-  </si>
-  <si>
-    <t>Verify whether an error popup message is displayed when we enter an incorrect text entered in the email To, CC, BCC fields.</t>
-  </si>
-  <si>
-    <t>Verify whether the Schedule send functionality is working properly or not</t>
-  </si>
-  <si>
-    <t>Verify whether the signature added in the settings is displayed or not when we compose an email.</t>
-  </si>
-  <si>
     <t>TC26</t>
   </si>
   <si>
@@ -358,6 +295,69 @@
   </si>
   <si>
     <t>TDD Style</t>
+  </si>
+  <si>
+    <t>Check/Verify that the ‘New Message’ popup is displaying on clicking on the Compose email button.</t>
+  </si>
+  <si>
+    <t>Check that the text can be entered in the Subject text box.</t>
+  </si>
+  <si>
+    <t>Check that the user can add files in the attachment section.</t>
+  </si>
+  <si>
+    <t>Test that the maximum number of characters allowed in the email body text filed.</t>
+  </si>
+  <si>
+    <t>Test that multiple comma seperated email ids can be entered in the To, CC, and BCC sections</t>
+  </si>
+  <si>
+    <t>Check that the email ids can be entered in the fields To, CC, and BCC</t>
+  </si>
+  <si>
+    <t>Check/Verify that the auto suggestion are working properly based on the exisitng contacts while typing email ids in the To, CC, and BCC fields.</t>
+  </si>
+  <si>
+    <t>Check/Verify that the text can be entered in the email body area.</t>
+  </si>
+  <si>
+    <t>Check/Verify that the editor options such as font-family, font-size, bold, italic, underline, text color, etc., are working and allowing user to format the email body text.</t>
+  </si>
+  <si>
+    <t>Check/Verify that the user can add images in the email body area.</t>
+  </si>
+  <si>
+    <t>Check/Verify that the email is delivered to all the intended users in the To, CC, BCC.</t>
+  </si>
+  <si>
+    <t>Check/Verify that the sent emails are available in the Sent Mail section.</t>
+  </si>
+  <si>
+    <t>Check/Verify that the email is delivered to all the intended users who are using non-gmail ids such as Hotmail, Outlook, Yahoomail etc.,</t>
+  </si>
+  <si>
+    <t>Check/Verify that the emails composed and not sent are stored in the Draft section.</t>
+  </si>
+  <si>
+    <t>Check/Verify that the maximum number of emails can be entered in the To, CC, and BCC fields.</t>
+  </si>
+  <si>
+    <t>Check/Verify that the maximum number of characters allowed in the subject text box.</t>
+  </si>
+  <si>
+    <t>Check/Verify that the maximum number of attachments and size of the attachment allowed in an email.</t>
+  </si>
+  <si>
+    <t>Check/Verify whether a warning popup message is displayed when we try to send an email without Subject line.</t>
+  </si>
+  <si>
+    <t>Check/Verify whether an error popup message is displayed when we enter an incorrect text entered in the email To, CC, BCC fields.</t>
+  </si>
+  <si>
+    <t>Check/Verify whether the Schedule send functionality is working properly or not</t>
+  </si>
+  <si>
+    <t>Check/Verify whether the signature added in the settings is displayed or not when we compose an email.</t>
   </si>
 </sst>
 </file>
@@ -449,9 +449,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -769,420 +769,420 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="24.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="141" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="24.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="141" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:3" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:3" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
